--- a/TableOrigin/210_Stage.xlsx
+++ b/TableOrigin/210_Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E24D3-E4B4-4605-9527-F8CF2EC52456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34834F-7CB4-41C0-A8AD-6C1B1A206B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="795" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="510" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,14 +458,14 @@
       <c r="B3" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>11010001</v>
       </c>
       <c r="D3" s="2">
         <v>9000</v>
       </c>
       <c r="E3" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F3" s="2">
         <v>1000</v>
@@ -481,14 +481,14 @@
       <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>11010001</v>
+      <c r="C4" s="1">
+        <v>11010002</v>
       </c>
       <c r="D4" s="2">
         <v>9000</v>
       </c>
       <c r="E4" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F4" s="2">
         <v>1000</v>
@@ -504,14 +504,14 @@
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>11010001</v>
+      <c r="C5" s="1">
+        <v>11010003</v>
       </c>
       <c r="D5" s="2">
         <v>9000</v>
       </c>
       <c r="E5" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
@@ -527,14 +527,14 @@
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <v>11010001</v>
+      <c r="C6" s="1">
+        <v>11010004</v>
       </c>
       <c r="D6" s="2">
         <v>9000</v>
       </c>
       <c r="E6" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F6" s="2">
         <v>1000</v>
@@ -550,14 +550,14 @@
       <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>11010001</v>
       </c>
       <c r="D7" s="2">
         <v>9000</v>
       </c>
       <c r="E7" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F7" s="2">
         <v>1000</v>
@@ -573,14 +573,14 @@
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>11010001</v>
+      <c r="C8" s="1">
+        <v>11010002</v>
       </c>
       <c r="D8" s="2">
         <v>9000</v>
       </c>
       <c r="E8" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F8" s="2">
         <v>1000</v>
@@ -596,14 +596,14 @@
       <c r="B9" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>11010001</v>
+      <c r="C9" s="1">
+        <v>11010003</v>
       </c>
       <c r="D9" s="2">
         <v>9000</v>
       </c>
       <c r="E9" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -619,14 +619,14 @@
       <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>11010001</v>
+      <c r="C10" s="1">
+        <v>11010004</v>
       </c>
       <c r="D10" s="2">
         <v>9000</v>
       </c>
       <c r="E10" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F10" s="2">
         <v>1000</v>
@@ -642,14 +642,14 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>11010001</v>
       </c>
       <c r="D11" s="2">
         <v>9000</v>
       </c>
       <c r="E11" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F11" s="2">
         <v>1000</v>
@@ -665,14 +665,14 @@
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>11010001</v>
+      <c r="C12" s="1">
+        <v>11010002</v>
       </c>
       <c r="D12" s="2">
         <v>9000</v>
       </c>
       <c r="E12" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F12" s="2">
         <v>1000</v>
@@ -688,14 +688,14 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>11010001</v>
+      <c r="C13" s="1">
+        <v>11010003</v>
       </c>
       <c r="D13" s="2">
         <v>9000</v>
       </c>
       <c r="E13" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F13" s="2">
         <v>1000</v>
@@ -711,14 +711,14 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
-        <v>11010001</v>
+      <c r="C14" s="1">
+        <v>11010004</v>
       </c>
       <c r="D14" s="2">
         <v>9000</v>
       </c>
       <c r="E14" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F14" s="2">
         <v>1000</v>
@@ -734,14 +734,14 @@
       <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>11010001</v>
       </c>
       <c r="D15" s="2">
         <v>9000</v>
       </c>
       <c r="E15" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F15" s="2">
         <v>1000</v>
@@ -757,14 +757,14 @@
       <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
-        <v>11010001</v>
+      <c r="C16" s="1">
+        <v>11010002</v>
       </c>
       <c r="D16" s="2">
         <v>9000</v>
       </c>
       <c r="E16" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F16" s="2">
         <v>1000</v>
@@ -780,14 +780,14 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2">
-        <v>11010001</v>
+      <c r="C17" s="1">
+        <v>11010003</v>
       </c>
       <c r="D17" s="2">
         <v>9000</v>
       </c>
       <c r="E17" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F17" s="2">
         <v>1000</v>
@@ -803,14 +803,14 @@
       <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="2">
-        <v>11010001</v>
+      <c r="C18" s="1">
+        <v>11010004</v>
       </c>
       <c r="D18" s="2">
         <v>9000</v>
       </c>
       <c r="E18" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F18" s="2">
         <v>1000</v>
@@ -826,14 +826,14 @@
       <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>11010001</v>
       </c>
       <c r="D19" s="2">
         <v>9000</v>
       </c>
       <c r="E19" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F19" s="2">
         <v>1000</v>
@@ -849,14 +849,14 @@
       <c r="B20" s="2">
         <v>10</v>
       </c>
-      <c r="C20" s="2">
-        <v>11010001</v>
+      <c r="C20" s="1">
+        <v>11010002</v>
       </c>
       <c r="D20" s="2">
         <v>9000</v>
       </c>
       <c r="E20" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F20" s="2">
         <v>1000</v>
@@ -872,14 +872,14 @@
       <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
-        <v>11010001</v>
+      <c r="C21" s="1">
+        <v>11010003</v>
       </c>
       <c r="D21" s="2">
         <v>9000</v>
       </c>
       <c r="E21" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F21" s="2">
         <v>1000</v>
@@ -895,14 +895,14 @@
       <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="2">
-        <v>11010001</v>
+      <c r="C22" s="1">
+        <v>11010004</v>
       </c>
       <c r="D22" s="2">
         <v>9000</v>
       </c>
       <c r="E22" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F22" s="2">
         <v>1000</v>
@@ -918,14 +918,14 @@
       <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>11010001</v>
       </c>
       <c r="D23" s="2">
         <v>9000</v>
       </c>
       <c r="E23" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F23" s="2">
         <v>1000</v>
@@ -941,14 +941,14 @@
       <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
-        <v>11010001</v>
+      <c r="C24" s="1">
+        <v>11010002</v>
       </c>
       <c r="D24" s="2">
         <v>9000</v>
       </c>
       <c r="E24" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F24" s="2">
         <v>1000</v>
@@ -964,14 +964,14 @@
       <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
-        <v>11010001</v>
+      <c r="C25" s="1">
+        <v>11010003</v>
       </c>
       <c r="D25" s="2">
         <v>9000</v>
       </c>
       <c r="E25" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F25" s="2">
         <v>1000</v>
@@ -987,14 +987,14 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="2">
-        <v>11010001</v>
+      <c r="C26" s="1">
+        <v>11010004</v>
       </c>
       <c r="D26" s="2">
         <v>9000</v>
       </c>
       <c r="E26" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F26" s="2">
         <v>1000</v>
@@ -1010,14 +1010,14 @@
       <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>11010001</v>
       </c>
       <c r="D27" s="2">
         <v>9000</v>
       </c>
       <c r="E27" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F27" s="2">
         <v>1000</v>
@@ -1033,14 +1033,14 @@
       <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="2">
-        <v>11010001</v>
+      <c r="C28" s="1">
+        <v>11010002</v>
       </c>
       <c r="D28" s="2">
         <v>9000</v>
       </c>
       <c r="E28" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F28" s="2">
         <v>1000</v>
@@ -1056,14 +1056,14 @@
       <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="2">
-        <v>11010001</v>
+      <c r="C29" s="1">
+        <v>11010003</v>
       </c>
       <c r="D29" s="2">
         <v>9000</v>
       </c>
       <c r="E29" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F29" s="2">
         <v>1000</v>
@@ -1079,14 +1079,14 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="2">
-        <v>11010001</v>
+      <c r="C30" s="1">
+        <v>11010004</v>
       </c>
       <c r="D30" s="2">
         <v>9000</v>
       </c>
       <c r="E30" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F30" s="2">
         <v>1000</v>
@@ -1102,14 +1102,14 @@
       <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>11010001</v>
       </c>
       <c r="D31" s="2">
         <v>9000</v>
       </c>
       <c r="E31" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F31" s="2">
         <v>1000</v>
@@ -1125,14 +1125,14 @@
       <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="C32" s="2">
-        <v>11010001</v>
+      <c r="C32" s="1">
+        <v>11010002</v>
       </c>
       <c r="D32" s="2">
         <v>9000</v>
       </c>
       <c r="E32" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F32" s="2">
         <v>1000</v>
@@ -1148,14 +1148,14 @@
       <c r="B33" s="2">
         <v>10</v>
       </c>
-      <c r="C33" s="2">
-        <v>11010001</v>
+      <c r="C33" s="1">
+        <v>11010003</v>
       </c>
       <c r="D33" s="2">
         <v>9000</v>
       </c>
       <c r="E33" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F33" s="2">
         <v>1000</v>
@@ -1171,14 +1171,14 @@
       <c r="B34" s="2">
         <v>10</v>
       </c>
-      <c r="C34" s="2">
-        <v>11010001</v>
+      <c r="C34" s="1">
+        <v>11010004</v>
       </c>
       <c r="D34" s="2">
         <v>9000</v>
       </c>
       <c r="E34" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F34" s="2">
         <v>1000</v>
@@ -1194,14 +1194,14 @@
       <c r="B35" s="2">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>11010001</v>
       </c>
       <c r="D35" s="2">
         <v>9000</v>
       </c>
       <c r="E35" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F35" s="2">
         <v>1000</v>
@@ -1217,14 +1217,14 @@
       <c r="B36" s="2">
         <v>10</v>
       </c>
-      <c r="C36" s="2">
-        <v>11010001</v>
+      <c r="C36" s="1">
+        <v>11010002</v>
       </c>
       <c r="D36" s="2">
         <v>9000</v>
       </c>
       <c r="E36" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F36" s="2">
         <v>1000</v>
@@ -1240,14 +1240,14 @@
       <c r="B37" s="2">
         <v>10</v>
       </c>
-      <c r="C37" s="2">
-        <v>11010001</v>
+      <c r="C37" s="1">
+        <v>11010003</v>
       </c>
       <c r="D37" s="2">
         <v>9000</v>
       </c>
       <c r="E37" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F37" s="2">
         <v>1000</v>
@@ -1263,14 +1263,14 @@
       <c r="B38" s="2">
         <v>10</v>
       </c>
-      <c r="C38" s="2">
-        <v>11010001</v>
+      <c r="C38" s="1">
+        <v>11010004</v>
       </c>
       <c r="D38" s="2">
         <v>9000</v>
       </c>
       <c r="E38" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F38" s="2">
         <v>1000</v>
@@ -1286,14 +1286,14 @@
       <c r="B39" s="2">
         <v>10</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>11010001</v>
       </c>
       <c r="D39" s="2">
         <v>9000</v>
       </c>
       <c r="E39" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F39" s="2">
         <v>1000</v>
@@ -1309,14 +1309,14 @@
       <c r="B40" s="2">
         <v>10</v>
       </c>
-      <c r="C40" s="2">
-        <v>11010001</v>
+      <c r="C40" s="1">
+        <v>11010002</v>
       </c>
       <c r="D40" s="2">
         <v>9000</v>
       </c>
       <c r="E40" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F40" s="2">
         <v>1000</v>
@@ -1332,14 +1332,14 @@
       <c r="B41" s="2">
         <v>10</v>
       </c>
-      <c r="C41" s="2">
-        <v>11010001</v>
+      <c r="C41" s="1">
+        <v>11010003</v>
       </c>
       <c r="D41" s="2">
         <v>9000</v>
       </c>
       <c r="E41" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F41" s="2">
         <v>1000</v>
@@ -1355,14 +1355,14 @@
       <c r="B42" s="2">
         <v>10</v>
       </c>
-      <c r="C42" s="2">
-        <v>11010001</v>
+      <c r="C42" s="1">
+        <v>11010004</v>
       </c>
       <c r="D42" s="2">
         <v>9000</v>
       </c>
       <c r="E42" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F42" s="2">
         <v>1000</v>
@@ -1378,14 +1378,14 @@
       <c r="B43" s="2">
         <v>10</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>11010001</v>
       </c>
       <c r="D43" s="2">
         <v>9000</v>
       </c>
       <c r="E43" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F43" s="2">
         <v>1000</v>
@@ -1401,14 +1401,14 @@
       <c r="B44" s="2">
         <v>10</v>
       </c>
-      <c r="C44" s="2">
-        <v>11010001</v>
+      <c r="C44" s="1">
+        <v>11010002</v>
       </c>
       <c r="D44" s="2">
         <v>9000</v>
       </c>
       <c r="E44" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F44" s="2">
         <v>1000</v>
@@ -1424,14 +1424,14 @@
       <c r="B45" s="2">
         <v>10</v>
       </c>
-      <c r="C45" s="2">
-        <v>11010001</v>
+      <c r="C45" s="1">
+        <v>11010003</v>
       </c>
       <c r="D45" s="2">
         <v>9000</v>
       </c>
       <c r="E45" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F45" s="2">
         <v>1000</v>
@@ -1447,14 +1447,14 @@
       <c r="B46" s="2">
         <v>10</v>
       </c>
-      <c r="C46" s="2">
-        <v>11010001</v>
+      <c r="C46" s="1">
+        <v>11010004</v>
       </c>
       <c r="D46" s="2">
         <v>9000</v>
       </c>
       <c r="E46" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F46" s="2">
         <v>1000</v>
@@ -1470,14 +1470,14 @@
       <c r="B47" s="2">
         <v>10</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>11010001</v>
       </c>
       <c r="D47" s="2">
         <v>9000</v>
       </c>
       <c r="E47" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F47" s="2">
         <v>1000</v>
@@ -1493,14 +1493,14 @@
       <c r="B48" s="2">
         <v>10</v>
       </c>
-      <c r="C48" s="2">
-        <v>11010001</v>
+      <c r="C48" s="1">
+        <v>11010002</v>
       </c>
       <c r="D48" s="2">
         <v>9000</v>
       </c>
       <c r="E48" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F48" s="2">
         <v>1000</v>
@@ -1516,14 +1516,14 @@
       <c r="B49" s="2">
         <v>10</v>
       </c>
-      <c r="C49" s="2">
-        <v>11010001</v>
+      <c r="C49" s="1">
+        <v>11010003</v>
       </c>
       <c r="D49" s="2">
         <v>9000</v>
       </c>
       <c r="E49" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F49" s="2">
         <v>1000</v>
@@ -1539,14 +1539,14 @@
       <c r="B50" s="2">
         <v>10</v>
       </c>
-      <c r="C50" s="2">
-        <v>11010001</v>
+      <c r="C50" s="1">
+        <v>11010004</v>
       </c>
       <c r="D50" s="2">
         <v>9000</v>
       </c>
       <c r="E50" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F50" s="2">
         <v>1000</v>
@@ -1562,14 +1562,14 @@
       <c r="B51" s="2">
         <v>10</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>11010001</v>
       </c>
       <c r="D51" s="2">
         <v>9000</v>
       </c>
       <c r="E51" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F51" s="2">
         <v>1000</v>
@@ -1585,14 +1585,14 @@
       <c r="B52" s="2">
         <v>10</v>
       </c>
-      <c r="C52" s="2">
-        <v>11010001</v>
+      <c r="C52" s="1">
+        <v>11010002</v>
       </c>
       <c r="D52" s="2">
         <v>9000</v>
       </c>
       <c r="E52" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F52" s="2">
         <v>1000</v>
@@ -1608,14 +1608,14 @@
       <c r="B53" s="2">
         <v>10</v>
       </c>
-      <c r="C53" s="2">
-        <v>11010001</v>
+      <c r="C53" s="1">
+        <v>11010003</v>
       </c>
       <c r="D53" s="2">
         <v>9000</v>
       </c>
       <c r="E53" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F53" s="2">
         <v>1000</v>
@@ -1631,14 +1631,14 @@
       <c r="B54" s="2">
         <v>10</v>
       </c>
-      <c r="C54" s="2">
-        <v>11010001</v>
+      <c r="C54" s="1">
+        <v>11010004</v>
       </c>
       <c r="D54" s="2">
         <v>9000</v>
       </c>
       <c r="E54" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F54" s="2">
         <v>1000</v>
@@ -1654,14 +1654,14 @@
       <c r="B55" s="2">
         <v>10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>11010001</v>
       </c>
       <c r="D55" s="2">
         <v>9000</v>
       </c>
       <c r="E55" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F55" s="2">
         <v>1000</v>
@@ -1677,14 +1677,14 @@
       <c r="B56" s="2">
         <v>10</v>
       </c>
-      <c r="C56" s="2">
-        <v>11010001</v>
+      <c r="C56" s="1">
+        <v>11010002</v>
       </c>
       <c r="D56" s="2">
         <v>9000</v>
       </c>
       <c r="E56" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F56" s="2">
         <v>1000</v>
@@ -1700,14 +1700,14 @@
       <c r="B57" s="2">
         <v>10</v>
       </c>
-      <c r="C57" s="2">
-        <v>11010001</v>
+      <c r="C57" s="1">
+        <v>11010003</v>
       </c>
       <c r="D57" s="2">
         <v>9000</v>
       </c>
       <c r="E57" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F57" s="2">
         <v>1000</v>
@@ -1723,14 +1723,14 @@
       <c r="B58" s="2">
         <v>10</v>
       </c>
-      <c r="C58" s="2">
-        <v>11010001</v>
+      <c r="C58" s="1">
+        <v>11010004</v>
       </c>
       <c r="D58" s="2">
         <v>9000</v>
       </c>
       <c r="E58" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F58" s="2">
         <v>1000</v>
@@ -1746,14 +1746,14 @@
       <c r="B59" s="2">
         <v>10</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>11010001</v>
       </c>
       <c r="D59" s="2">
         <v>9000</v>
       </c>
       <c r="E59" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F59" s="2">
         <v>1000</v>
@@ -1769,14 +1769,14 @@
       <c r="B60" s="2">
         <v>10</v>
       </c>
-      <c r="C60" s="2">
-        <v>11010001</v>
+      <c r="C60" s="1">
+        <v>11010002</v>
       </c>
       <c r="D60" s="2">
         <v>9000</v>
       </c>
       <c r="E60" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F60" s="2">
         <v>1000</v>
@@ -1792,14 +1792,14 @@
       <c r="B61" s="2">
         <v>10</v>
       </c>
-      <c r="C61" s="2">
-        <v>11010001</v>
+      <c r="C61" s="1">
+        <v>11010003</v>
       </c>
       <c r="D61" s="2">
         <v>9000</v>
       </c>
       <c r="E61" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F61" s="2">
         <v>1000</v>
@@ -1815,14 +1815,14 @@
       <c r="B62" s="2">
         <v>10</v>
       </c>
-      <c r="C62" s="2">
-        <v>11010001</v>
+      <c r="C62" s="1">
+        <v>11010004</v>
       </c>
       <c r="D62" s="2">
         <v>9000</v>
       </c>
       <c r="E62" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F62" s="2">
         <v>1000</v>
@@ -1838,14 +1838,14 @@
       <c r="B63" s="2">
         <v>10</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>11010001</v>
       </c>
       <c r="D63" s="2">
         <v>9000</v>
       </c>
       <c r="E63" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F63" s="2">
         <v>1000</v>
@@ -1861,14 +1861,14 @@
       <c r="B64" s="2">
         <v>10</v>
       </c>
-      <c r="C64" s="2">
-        <v>11010001</v>
+      <c r="C64" s="1">
+        <v>11010002</v>
       </c>
       <c r="D64" s="2">
         <v>9000</v>
       </c>
       <c r="E64" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F64" s="2">
         <v>1000</v>
@@ -1884,14 +1884,14 @@
       <c r="B65" s="2">
         <v>10</v>
       </c>
-      <c r="C65" s="2">
-        <v>11010001</v>
+      <c r="C65" s="1">
+        <v>11010003</v>
       </c>
       <c r="D65" s="2">
         <v>9000</v>
       </c>
       <c r="E65" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F65" s="2">
         <v>1000</v>
@@ -1907,14 +1907,14 @@
       <c r="B66" s="2">
         <v>10</v>
       </c>
-      <c r="C66" s="2">
-        <v>11010001</v>
+      <c r="C66" s="1">
+        <v>11010004</v>
       </c>
       <c r="D66" s="2">
         <v>9000</v>
       </c>
       <c r="E66" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F66" s="2">
         <v>1000</v>
@@ -1930,14 +1930,14 @@
       <c r="B67" s="2">
         <v>10</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>11010001</v>
       </c>
       <c r="D67" s="2">
         <v>9000</v>
       </c>
       <c r="E67" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F67" s="2">
         <v>1000</v>
@@ -1953,14 +1953,14 @@
       <c r="B68" s="2">
         <v>10</v>
       </c>
-      <c r="C68" s="2">
-        <v>11010001</v>
+      <c r="C68" s="1">
+        <v>11010002</v>
       </c>
       <c r="D68" s="2">
         <v>9000</v>
       </c>
       <c r="E68" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F68" s="2">
         <v>1000</v>
@@ -1976,14 +1976,14 @@
       <c r="B69" s="2">
         <v>10</v>
       </c>
-      <c r="C69" s="2">
-        <v>11010001</v>
+      <c r="C69" s="1">
+        <v>11010003</v>
       </c>
       <c r="D69" s="2">
         <v>9000</v>
       </c>
       <c r="E69" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F69" s="2">
         <v>1000</v>
@@ -1999,14 +1999,14 @@
       <c r="B70" s="2">
         <v>10</v>
       </c>
-      <c r="C70" s="2">
-        <v>11010001</v>
+      <c r="C70" s="1">
+        <v>11010004</v>
       </c>
       <c r="D70" s="2">
         <v>9000</v>
       </c>
       <c r="E70" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F70" s="2">
         <v>1000</v>
@@ -2022,14 +2022,14 @@
       <c r="B71" s="2">
         <v>10</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>11010001</v>
       </c>
       <c r="D71" s="2">
         <v>9000</v>
       </c>
       <c r="E71" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F71" s="2">
         <v>1000</v>
@@ -2045,14 +2045,14 @@
       <c r="B72" s="2">
         <v>10</v>
       </c>
-      <c r="C72" s="2">
-        <v>11010001</v>
+      <c r="C72" s="1">
+        <v>11010002</v>
       </c>
       <c r="D72" s="2">
         <v>9000</v>
       </c>
       <c r="E72" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F72" s="2">
         <v>1000</v>
@@ -2068,14 +2068,14 @@
       <c r="B73" s="2">
         <v>10</v>
       </c>
-      <c r="C73" s="2">
-        <v>11010001</v>
+      <c r="C73" s="1">
+        <v>11010003</v>
       </c>
       <c r="D73" s="2">
         <v>9000</v>
       </c>
       <c r="E73" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F73" s="2">
         <v>1000</v>
@@ -2091,14 +2091,14 @@
       <c r="B74" s="2">
         <v>10</v>
       </c>
-      <c r="C74" s="2">
-        <v>11010001</v>
+      <c r="C74" s="1">
+        <v>11010004</v>
       </c>
       <c r="D74" s="2">
         <v>9000</v>
       </c>
       <c r="E74" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F74" s="2">
         <v>1000</v>
@@ -2114,14 +2114,14 @@
       <c r="B75" s="2">
         <v>10</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>11010001</v>
       </c>
       <c r="D75" s="2">
         <v>9000</v>
       </c>
       <c r="E75" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F75" s="2">
         <v>1000</v>
@@ -2137,14 +2137,14 @@
       <c r="B76" s="2">
         <v>10</v>
       </c>
-      <c r="C76" s="2">
-        <v>11010001</v>
+      <c r="C76" s="1">
+        <v>11010002</v>
       </c>
       <c r="D76" s="2">
         <v>9000</v>
       </c>
       <c r="E76" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F76" s="2">
         <v>1000</v>
@@ -2160,14 +2160,14 @@
       <c r="B77" s="2">
         <v>10</v>
       </c>
-      <c r="C77" s="2">
-        <v>11010001</v>
+      <c r="C77" s="1">
+        <v>11010003</v>
       </c>
       <c r="D77" s="2">
         <v>9000</v>
       </c>
       <c r="E77" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F77" s="2">
         <v>1000</v>
@@ -2183,14 +2183,14 @@
       <c r="B78" s="2">
         <v>10</v>
       </c>
-      <c r="C78" s="2">
-        <v>11010001</v>
+      <c r="C78" s="1">
+        <v>11010004</v>
       </c>
       <c r="D78" s="2">
         <v>9000</v>
       </c>
       <c r="E78" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F78" s="2">
         <v>1000</v>
@@ -2206,14 +2206,14 @@
       <c r="B79" s="2">
         <v>10</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>11010001</v>
       </c>
       <c r="D79" s="2">
         <v>9000</v>
       </c>
       <c r="E79" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F79" s="2">
         <v>1000</v>
@@ -2229,14 +2229,14 @@
       <c r="B80" s="2">
         <v>10</v>
       </c>
-      <c r="C80" s="2">
-        <v>11010001</v>
+      <c r="C80" s="1">
+        <v>11010002</v>
       </c>
       <c r="D80" s="2">
         <v>9000</v>
       </c>
       <c r="E80" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F80" s="2">
         <v>1000</v>
@@ -2252,14 +2252,14 @@
       <c r="B81" s="2">
         <v>10</v>
       </c>
-      <c r="C81" s="2">
-        <v>11010001</v>
+      <c r="C81" s="1">
+        <v>11010003</v>
       </c>
       <c r="D81" s="2">
         <v>9000</v>
       </c>
       <c r="E81" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F81" s="2">
         <v>1000</v>
@@ -2275,14 +2275,14 @@
       <c r="B82" s="2">
         <v>10</v>
       </c>
-      <c r="C82" s="2">
-        <v>11010001</v>
+      <c r="C82" s="1">
+        <v>11010004</v>
       </c>
       <c r="D82" s="2">
         <v>9000</v>
       </c>
       <c r="E82" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F82" s="2">
         <v>1000</v>
@@ -2298,14 +2298,14 @@
       <c r="B83" s="2">
         <v>10</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>11010001</v>
       </c>
       <c r="D83" s="2">
         <v>9000</v>
       </c>
       <c r="E83" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F83" s="2">
         <v>1000</v>
@@ -2321,14 +2321,14 @@
       <c r="B84" s="2">
         <v>10</v>
       </c>
-      <c r="C84" s="2">
-        <v>11010001</v>
+      <c r="C84" s="1">
+        <v>11010002</v>
       </c>
       <c r="D84" s="2">
         <v>9000</v>
       </c>
       <c r="E84" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F84" s="2">
         <v>1000</v>
@@ -2344,14 +2344,14 @@
       <c r="B85" s="2">
         <v>10</v>
       </c>
-      <c r="C85" s="2">
-        <v>11010001</v>
+      <c r="C85" s="1">
+        <v>11010003</v>
       </c>
       <c r="D85" s="2">
         <v>9000</v>
       </c>
       <c r="E85" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F85" s="2">
         <v>1000</v>
@@ -2367,14 +2367,14 @@
       <c r="B86" s="2">
         <v>10</v>
       </c>
-      <c r="C86" s="2">
-        <v>11010001</v>
+      <c r="C86" s="1">
+        <v>11010004</v>
       </c>
       <c r="D86" s="2">
         <v>9000</v>
       </c>
       <c r="E86" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F86" s="2">
         <v>1000</v>
@@ -2390,14 +2390,14 @@
       <c r="B87" s="2">
         <v>10</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="1">
         <v>11010001</v>
       </c>
       <c r="D87" s="2">
         <v>9000</v>
       </c>
       <c r="E87" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F87" s="2">
         <v>1000</v>
@@ -2413,14 +2413,14 @@
       <c r="B88" s="2">
         <v>10</v>
       </c>
-      <c r="C88" s="2">
-        <v>11010001</v>
+      <c r="C88" s="1">
+        <v>11010002</v>
       </c>
       <c r="D88" s="2">
         <v>9000</v>
       </c>
       <c r="E88" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F88" s="2">
         <v>1000</v>
@@ -2436,14 +2436,14 @@
       <c r="B89" s="2">
         <v>10</v>
       </c>
-      <c r="C89" s="2">
-        <v>11010001</v>
+      <c r="C89" s="1">
+        <v>11010003</v>
       </c>
       <c r="D89" s="2">
         <v>9000</v>
       </c>
       <c r="E89" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F89" s="2">
         <v>1000</v>
@@ -2459,14 +2459,14 @@
       <c r="B90" s="2">
         <v>10</v>
       </c>
-      <c r="C90" s="2">
-        <v>11010001</v>
+      <c r="C90" s="1">
+        <v>11010004</v>
       </c>
       <c r="D90" s="2">
         <v>9000</v>
       </c>
       <c r="E90" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F90" s="2">
         <v>1000</v>
@@ -2482,14 +2482,14 @@
       <c r="B91" s="2">
         <v>10</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <v>11010001</v>
       </c>
       <c r="D91" s="2">
         <v>9000</v>
       </c>
       <c r="E91" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F91" s="2">
         <v>1000</v>
@@ -2505,14 +2505,14 @@
       <c r="B92" s="2">
         <v>10</v>
       </c>
-      <c r="C92" s="2">
-        <v>11010001</v>
+      <c r="C92" s="1">
+        <v>11010002</v>
       </c>
       <c r="D92" s="2">
         <v>9000</v>
       </c>
       <c r="E92" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F92" s="2">
         <v>1000</v>
@@ -2528,14 +2528,14 @@
       <c r="B93" s="2">
         <v>10</v>
       </c>
-      <c r="C93" s="2">
-        <v>11010001</v>
+      <c r="C93" s="1">
+        <v>11010003</v>
       </c>
       <c r="D93" s="2">
         <v>9000</v>
       </c>
       <c r="E93" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F93" s="2">
         <v>1000</v>
@@ -2551,14 +2551,14 @@
       <c r="B94" s="2">
         <v>10</v>
       </c>
-      <c r="C94" s="2">
-        <v>11010001</v>
+      <c r="C94" s="1">
+        <v>11010004</v>
       </c>
       <c r="D94" s="2">
         <v>9000</v>
       </c>
       <c r="E94" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F94" s="2">
         <v>1000</v>
@@ -2574,14 +2574,14 @@
       <c r="B95" s="2">
         <v>10</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="1">
         <v>11010001</v>
       </c>
       <c r="D95" s="2">
         <v>9000</v>
       </c>
       <c r="E95" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F95" s="2">
         <v>1000</v>
@@ -2597,14 +2597,14 @@
       <c r="B96" s="2">
         <v>10</v>
       </c>
-      <c r="C96" s="2">
-        <v>11010001</v>
+      <c r="C96" s="1">
+        <v>11010002</v>
       </c>
       <c r="D96" s="2">
         <v>9000</v>
       </c>
       <c r="E96" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F96" s="2">
         <v>1000</v>
@@ -2620,14 +2620,14 @@
       <c r="B97" s="2">
         <v>10</v>
       </c>
-      <c r="C97" s="2">
-        <v>11010001</v>
+      <c r="C97" s="1">
+        <v>11010003</v>
       </c>
       <c r="D97" s="2">
         <v>9000</v>
       </c>
       <c r="E97" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F97" s="2">
         <v>1000</v>
@@ -2643,14 +2643,14 @@
       <c r="B98" s="2">
         <v>10</v>
       </c>
-      <c r="C98" s="2">
-        <v>11010001</v>
+      <c r="C98" s="1">
+        <v>11010004</v>
       </c>
       <c r="D98" s="2">
         <v>9000</v>
       </c>
       <c r="E98" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F98" s="2">
         <v>1000</v>
@@ -2666,14 +2666,14 @@
       <c r="B99" s="2">
         <v>10</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>11010001</v>
       </c>
       <c r="D99" s="2">
         <v>9000</v>
       </c>
       <c r="E99" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F99" s="2">
         <v>1000</v>
@@ -2689,14 +2689,14 @@
       <c r="B100" s="2">
         <v>10</v>
       </c>
-      <c r="C100" s="2">
-        <v>11010001</v>
+      <c r="C100" s="1">
+        <v>11010002</v>
       </c>
       <c r="D100" s="2">
         <v>9000</v>
       </c>
       <c r="E100" s="2">
-        <v>11010002</v>
+        <v>11020001</v>
       </c>
       <c r="F100" s="2">
         <v>1000</v>
@@ -2712,14 +2712,14 @@
       <c r="B101" s="2">
         <v>10</v>
       </c>
-      <c r="C101" s="2">
-        <v>11010001</v>
+      <c r="C101" s="1">
+        <v>11010003</v>
       </c>
       <c r="D101" s="2">
         <v>9000</v>
       </c>
       <c r="E101" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F101" s="2">
         <v>1000</v>
@@ -2735,14 +2735,14 @@
       <c r="B102" s="2">
         <v>10</v>
       </c>
-      <c r="C102" s="2">
-        <v>11010001</v>
+      <c r="C102" s="1">
+        <v>11010004</v>
       </c>
       <c r="D102" s="2">
         <v>9000</v>
       </c>
       <c r="E102" s="2">
-        <v>11010002</v>
+        <v>11020002</v>
       </c>
       <c r="F102" s="2">
         <v>1000</v>

--- a/TableOrigin/210_Stage.xlsx
+++ b/TableOrigin/210_Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34834F-7CB4-41C0-A8AD-6C1B1A206B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23289BE5-76DC-4988-8AA1-AD84FA9A146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="510" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>Level</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>[int]</t>
+  </si>
+  <si>
+    <t>Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LavaCave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LavaMountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowMountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,7 +424,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,6 +461,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -449,6 +488,9 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -473,6 +515,9 @@
       <c r="G3" s="2">
         <v>5</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -496,6 +541,9 @@
       <c r="G4" s="2">
         <v>7</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -519,6 +567,9 @@
       <c r="G5" s="2">
         <v>9</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -542,6 +593,9 @@
       <c r="G6" s="2">
         <v>11</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -565,6 +619,9 @@
       <c r="G7" s="2">
         <v>13</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -588,6 +645,9 @@
       <c r="G8" s="2">
         <v>15</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -611,6 +671,9 @@
       <c r="G9" s="2">
         <v>17</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -634,6 +697,9 @@
       <c r="G10" s="2">
         <v>19</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -657,6 +723,9 @@
       <c r="G11" s="2">
         <v>21</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -679,6 +748,9 @@
       </c>
       <c r="G12" s="2">
         <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -703,6 +775,9 @@
       <c r="G13" s="2">
         <v>25</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -726,6 +801,9 @@
       <c r="G14" s="2">
         <v>27</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -749,6 +827,9 @@
       <c r="G15" s="2">
         <v>29</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -772,8 +853,11 @@
       <c r="G16" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -795,8 +879,11 @@
       <c r="G17" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -818,8 +905,11 @@
       <c r="G18" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -841,8 +931,11 @@
       <c r="G19" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -864,8 +957,11 @@
       <c r="G20" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -887,8 +983,11 @@
       <c r="G21" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -910,8 +1009,11 @@
       <c r="G22" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -933,8 +1035,11 @@
       <c r="G23" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -956,8 +1061,11 @@
       <c r="G24" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -979,8 +1087,11 @@
       <c r="G25" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1002,8 +1113,11 @@
       <c r="G26" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1025,8 +1139,11 @@
       <c r="G27" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1048,8 +1165,11 @@
       <c r="G28" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1071,8 +1191,11 @@
       <c r="G29" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1094,8 +1217,11 @@
       <c r="G30" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1117,8 +1243,11 @@
       <c r="G31" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1140,8 +1269,11 @@
       <c r="G32" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1163,8 +1295,11 @@
       <c r="G33" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1186,8 +1321,11 @@
       <c r="G34" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1209,8 +1347,11 @@
       <c r="G35" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1232,8 +1373,11 @@
       <c r="G36" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1255,8 +1399,11 @@
       <c r="G37" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1278,8 +1425,11 @@
       <c r="G38" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1301,8 +1451,11 @@
       <c r="G39" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1324,8 +1477,11 @@
       <c r="G40" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1347,8 +1503,11 @@
       <c r="G41" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1370,8 +1529,11 @@
       <c r="G42" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1393,8 +1555,11 @@
       <c r="G43" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1416,8 +1581,11 @@
       <c r="G44" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1439,8 +1607,11 @@
       <c r="G45" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1462,8 +1633,11 @@
       <c r="G46" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1485,8 +1659,11 @@
       <c r="G47" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1508,8 +1685,11 @@
       <c r="G48" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1531,8 +1711,11 @@
       <c r="G49" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -1554,8 +1737,11 @@
       <c r="G50" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1577,8 +1763,11 @@
       <c r="G51" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -1600,8 +1789,11 @@
       <c r="G52" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -1623,8 +1815,11 @@
       <c r="G53" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1646,8 +1841,11 @@
       <c r="G54" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -1669,8 +1867,11 @@
       <c r="G55" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1692,8 +1893,11 @@
       <c r="G56" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1715,8 +1919,11 @@
       <c r="G57" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -1738,8 +1945,11 @@
       <c r="G58" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -1761,8 +1971,11 @@
       <c r="G59" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -1784,8 +1997,11 @@
       <c r="G60" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1807,8 +2023,11 @@
       <c r="G61" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -1830,8 +2049,11 @@
       <c r="G62" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -1853,8 +2075,11 @@
       <c r="G63" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -1876,8 +2101,11 @@
       <c r="G64" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -1899,8 +2127,11 @@
       <c r="G65" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -1922,8 +2153,11 @@
       <c r="G66" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -1945,8 +2179,11 @@
       <c r="G67" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -1968,8 +2205,11 @@
       <c r="G68" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -1991,8 +2231,11 @@
       <c r="G69" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2014,8 +2257,11 @@
       <c r="G70" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2037,8 +2283,11 @@
       <c r="G71" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2060,8 +2309,11 @@
       <c r="G72" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2083,8 +2335,11 @@
       <c r="G73" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2106,8 +2361,11 @@
       <c r="G74" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2129,8 +2387,11 @@
       <c r="G75" s="2">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2152,8 +2413,11 @@
       <c r="G76" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2175,8 +2439,11 @@
       <c r="G77" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2198,8 +2465,11 @@
       <c r="G78" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2221,8 +2491,11 @@
       <c r="G79" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2244,8 +2517,11 @@
       <c r="G80" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2267,8 +2543,11 @@
       <c r="G81" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2290,8 +2569,11 @@
       <c r="G82" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2313,8 +2595,11 @@
       <c r="G83" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2336,8 +2621,11 @@
       <c r="G84" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -2359,8 +2647,11 @@
       <c r="G85" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2382,8 +2673,11 @@
       <c r="G86" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -2405,8 +2699,11 @@
       <c r="G87" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -2428,8 +2725,11 @@
       <c r="G88" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -2451,8 +2751,11 @@
       <c r="G89" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -2474,8 +2777,11 @@
       <c r="G90" s="2">
         <v>179</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -2497,8 +2803,11 @@
       <c r="G91" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -2520,8 +2829,11 @@
       <c r="G92" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -2543,8 +2855,11 @@
       <c r="G93" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -2566,8 +2881,11 @@
       <c r="G94" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -2589,8 +2907,11 @@
       <c r="G95" s="2">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -2612,8 +2933,11 @@
       <c r="G96" s="2">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -2635,8 +2959,11 @@
       <c r="G97" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -2658,8 +2985,11 @@
       <c r="G98" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -2681,8 +3011,11 @@
       <c r="G99" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -2704,8 +3037,11 @@
       <c r="G100" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -2727,8 +3063,11 @@
       <c r="G101" s="2">
         <v>201</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -2749,6 +3088,9 @@
       </c>
       <c r="G102" s="2">
         <v>203</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/210_Stage.xlsx
+++ b/TableOrigin/210_Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23289BE5-76DC-4988-8AA1-AD84FA9A146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED780DD-DDC8-4A7F-9095-7BB8E2F4A515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <t>Level</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>SnowMountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,6 +476,12 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -491,6 +509,12 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -518,6 +542,12 @@
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -539,10 +569,16 @@
         <v>1000</v>
       </c>
       <c r="G4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -565,10 +601,16 @@
         <v>1000</v>
       </c>
       <c r="G5" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -591,10 +633,16 @@
         <v>1000</v>
       </c>
       <c r="G6" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -617,10 +665,16 @@
         <v>1000</v>
       </c>
       <c r="G7" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -643,10 +697,16 @@
         <v>1000</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -669,10 +729,16 @@
         <v>1000</v>
       </c>
       <c r="G9" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -695,10 +761,16 @@
         <v>1000</v>
       </c>
       <c r="G10" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -721,11 +793,17 @@
         <v>1000</v>
       </c>
       <c r="G11" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I11" s="1">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -747,10 +825,16 @@
         <v>1000</v>
       </c>
       <c r="G12" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -773,10 +857,16 @@
         <v>1000</v>
       </c>
       <c r="G13" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -799,10 +889,16 @@
         <v>1000</v>
       </c>
       <c r="G14" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -825,10 +921,16 @@
         <v>1000</v>
       </c>
       <c r="G15" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -851,13 +953,19 @@
         <v>1000</v>
       </c>
       <c r="G16" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -877,13 +985,19 @@
         <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -903,13 +1017,19 @@
         <v>1000</v>
       </c>
       <c r="G18" s="2">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -929,13 +1049,19 @@
         <v>1000</v>
       </c>
       <c r="G19" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -955,13 +1081,19 @@
         <v>1000</v>
       </c>
       <c r="G20" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -981,13 +1113,19 @@
         <v>1000</v>
       </c>
       <c r="G21" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1007,13 +1145,19 @@
         <v>1000</v>
       </c>
       <c r="G22" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1033,13 +1177,19 @@
         <v>1000</v>
       </c>
       <c r="G23" s="2">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1059,13 +1209,19 @@
         <v>1000</v>
       </c>
       <c r="G24" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <v>44</v>
+      </c>
+      <c r="J24" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1085,13 +1241,19 @@
         <v>1000</v>
       </c>
       <c r="G25" s="2">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>46</v>
+      </c>
+      <c r="J25" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1111,13 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="G26" s="2">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>48</v>
+      </c>
+      <c r="J26" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1137,13 +1305,19 @@
         <v>1000</v>
       </c>
       <c r="G27" s="2">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1163,13 +1337,19 @@
         <v>1000</v>
       </c>
       <c r="G28" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>52</v>
+      </c>
+      <c r="J28" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1189,13 +1369,19 @@
         <v>1000</v>
       </c>
       <c r="G29" s="2">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <v>54</v>
+      </c>
+      <c r="J29" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1215,13 +1401,19 @@
         <v>1000</v>
       </c>
       <c r="G30" s="2">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>56</v>
+      </c>
+      <c r="J30" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1241,13 +1433,19 @@
         <v>1000</v>
       </c>
       <c r="G31" s="2">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <v>58</v>
+      </c>
+      <c r="J31" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1267,13 +1465,19 @@
         <v>1000</v>
       </c>
       <c r="G32" s="2">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>60</v>
+      </c>
+      <c r="J32" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1293,13 +1497,19 @@
         <v>1000</v>
       </c>
       <c r="G33" s="2">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1319,13 +1529,19 @@
         <v>1000</v>
       </c>
       <c r="G34" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>64</v>
+      </c>
+      <c r="J34" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1345,13 +1561,19 @@
         <v>1000</v>
       </c>
       <c r="G35" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>66</v>
+      </c>
+      <c r="J35" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1371,13 +1593,19 @@
         <v>1000</v>
       </c>
       <c r="G36" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1">
+        <v>68</v>
+      </c>
+      <c r="J36" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1397,13 +1625,19 @@
         <v>1000</v>
       </c>
       <c r="G37" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="1">
+        <v>70</v>
+      </c>
+      <c r="J37" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1423,13 +1657,19 @@
         <v>1000</v>
       </c>
       <c r="G38" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="1">
+        <v>72</v>
+      </c>
+      <c r="J38" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1449,13 +1689,19 @@
         <v>1000</v>
       </c>
       <c r="G39" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="1">
+        <v>74</v>
+      </c>
+      <c r="J39" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1475,13 +1721,19 @@
         <v>1000</v>
       </c>
       <c r="G40" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <v>76</v>
+      </c>
+      <c r="J40" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1501,13 +1753,19 @@
         <v>1000</v>
       </c>
       <c r="G41" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="1">
+        <v>78</v>
+      </c>
+      <c r="J41" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1527,13 +1785,19 @@
         <v>1000</v>
       </c>
       <c r="G42" s="2">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="1">
+        <v>80</v>
+      </c>
+      <c r="J42" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1553,13 +1817,19 @@
         <v>1000</v>
       </c>
       <c r="G43" s="2">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="1">
+        <v>82</v>
+      </c>
+      <c r="J43" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1579,13 +1849,19 @@
         <v>1000</v>
       </c>
       <c r="G44" s="2">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="1">
+        <v>84</v>
+      </c>
+      <c r="J44" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1605,13 +1881,19 @@
         <v>1000</v>
       </c>
       <c r="G45" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="1">
+        <v>86</v>
+      </c>
+      <c r="J45" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1631,13 +1913,19 @@
         <v>1000</v>
       </c>
       <c r="G46" s="2">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="1">
+        <v>88</v>
+      </c>
+      <c r="J46" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1657,13 +1945,19 @@
         <v>1000</v>
       </c>
       <c r="G47" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="1">
+        <v>90</v>
+      </c>
+      <c r="J47" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1683,13 +1977,19 @@
         <v>1000</v>
       </c>
       <c r="G48" s="2">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="1">
+        <v>92</v>
+      </c>
+      <c r="J48" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1709,13 +2009,19 @@
         <v>1000</v>
       </c>
       <c r="G49" s="2">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="1">
+        <v>94</v>
+      </c>
+      <c r="J49" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -1735,13 +2041,19 @@
         <v>1000</v>
       </c>
       <c r="G50" s="2">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="1">
+        <v>96</v>
+      </c>
+      <c r="J50" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1761,13 +2073,19 @@
         <v>1000</v>
       </c>
       <c r="G51" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="1">
+        <v>98</v>
+      </c>
+      <c r="J51" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -1787,13 +2105,19 @@
         <v>1000</v>
       </c>
       <c r="G52" s="2">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="1">
+        <v>100</v>
+      </c>
+      <c r="J52" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -1813,13 +2137,19 @@
         <v>1000</v>
       </c>
       <c r="G53" s="2">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="1">
+        <v>102</v>
+      </c>
+      <c r="J53" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1839,13 +2169,19 @@
         <v>1000</v>
       </c>
       <c r="G54" s="2">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="1">
+        <v>104</v>
+      </c>
+      <c r="J54" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -1865,13 +2201,19 @@
         <v>1000</v>
       </c>
       <c r="G55" s="2">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="1">
+        <v>106</v>
+      </c>
+      <c r="J55" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1891,13 +2233,19 @@
         <v>1000</v>
       </c>
       <c r="G56" s="2">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="1">
+        <v>108</v>
+      </c>
+      <c r="J56" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1917,13 +2265,19 @@
         <v>1000</v>
       </c>
       <c r="G57" s="2">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="1">
+        <v>110</v>
+      </c>
+      <c r="J57" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -1943,13 +2297,19 @@
         <v>1000</v>
       </c>
       <c r="G58" s="2">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="1">
+        <v>112</v>
+      </c>
+      <c r="J58" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -1969,13 +2329,19 @@
         <v>1000</v>
       </c>
       <c r="G59" s="2">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="1">
+        <v>114</v>
+      </c>
+      <c r="J59" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -1995,13 +2361,19 @@
         <v>1000</v>
       </c>
       <c r="G60" s="2">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="1">
+        <v>116</v>
+      </c>
+      <c r="J60" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -2021,13 +2393,19 @@
         <v>1000</v>
       </c>
       <c r="G61" s="2">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="1">
+        <v>118</v>
+      </c>
+      <c r="J61" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -2047,13 +2425,19 @@
         <v>1000</v>
       </c>
       <c r="G62" s="2">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="1">
+        <v>120</v>
+      </c>
+      <c r="J62" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -2073,13 +2457,19 @@
         <v>1000</v>
       </c>
       <c r="G63" s="2">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="1">
+        <v>122</v>
+      </c>
+      <c r="J63" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -2099,13 +2489,19 @@
         <v>1000</v>
       </c>
       <c r="G64" s="2">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1">
+        <v>124</v>
+      </c>
+      <c r="J64" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -2125,13 +2521,19 @@
         <v>1000</v>
       </c>
       <c r="G65" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="1">
+        <v>126</v>
+      </c>
+      <c r="J65" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2151,13 +2553,19 @@
         <v>1000</v>
       </c>
       <c r="G66" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="1">
+        <v>128</v>
+      </c>
+      <c r="J66" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2177,13 +2585,19 @@
         <v>1000</v>
       </c>
       <c r="G67" s="2">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="1">
+        <v>130</v>
+      </c>
+      <c r="J67" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2203,13 +2617,19 @@
         <v>1000</v>
       </c>
       <c r="G68" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="1">
+        <v>132</v>
+      </c>
+      <c r="J68" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2229,13 +2649,19 @@
         <v>1000</v>
       </c>
       <c r="G69" s="2">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="1">
+        <v>134</v>
+      </c>
+      <c r="J69" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2255,13 +2681,19 @@
         <v>1000</v>
       </c>
       <c r="G70" s="2">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="1">
+        <v>136</v>
+      </c>
+      <c r="J70" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2281,13 +2713,19 @@
         <v>1000</v>
       </c>
       <c r="G71" s="2">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="1">
+        <v>138</v>
+      </c>
+      <c r="J71" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2307,13 +2745,19 @@
         <v>1000</v>
       </c>
       <c r="G72" s="2">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="1">
+        <v>140</v>
+      </c>
+      <c r="J72" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2333,13 +2777,19 @@
         <v>1000</v>
       </c>
       <c r="G73" s="2">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="1">
+        <v>142</v>
+      </c>
+      <c r="J73" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2359,13 +2809,19 @@
         <v>1000</v>
       </c>
       <c r="G74" s="2">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="1">
+        <v>144</v>
+      </c>
+      <c r="J74" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2385,13 +2841,19 @@
         <v>1000</v>
       </c>
       <c r="G75" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="1">
+        <v>146</v>
+      </c>
+      <c r="J75" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2411,13 +2873,19 @@
         <v>1000</v>
       </c>
       <c r="G76" s="2">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="1">
+        <v>148</v>
+      </c>
+      <c r="J76" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2437,13 +2905,19 @@
         <v>1000</v>
       </c>
       <c r="G77" s="2">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="1">
+        <v>150</v>
+      </c>
+      <c r="J77" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2463,13 +2937,19 @@
         <v>1000</v>
       </c>
       <c r="G78" s="2">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="1">
+        <v>152</v>
+      </c>
+      <c r="J78" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2489,13 +2969,19 @@
         <v>1000</v>
       </c>
       <c r="G79" s="2">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="1">
+        <v>154</v>
+      </c>
+      <c r="J79" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2515,13 +3001,19 @@
         <v>1000</v>
       </c>
       <c r="G80" s="2">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="1">
+        <v>156</v>
+      </c>
+      <c r="J80" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2541,13 +3033,19 @@
         <v>1000</v>
       </c>
       <c r="G81" s="2">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="1">
+        <v>158</v>
+      </c>
+      <c r="J81" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2567,13 +3065,19 @@
         <v>1000</v>
       </c>
       <c r="G82" s="2">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="1">
+        <v>160</v>
+      </c>
+      <c r="J82" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2593,13 +3097,19 @@
         <v>1000</v>
       </c>
       <c r="G83" s="2">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="1">
+        <v>162</v>
+      </c>
+      <c r="J83" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2619,13 +3129,19 @@
         <v>1000</v>
       </c>
       <c r="G84" s="2">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="1">
+        <v>164</v>
+      </c>
+      <c r="J84" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -2645,13 +3161,19 @@
         <v>1000</v>
       </c>
       <c r="G85" s="2">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="1">
+        <v>166</v>
+      </c>
+      <c r="J85" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2671,13 +3193,19 @@
         <v>1000</v>
       </c>
       <c r="G86" s="2">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="1">
+        <v>168</v>
+      </c>
+      <c r="J86" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -2697,13 +3225,19 @@
         <v>1000</v>
       </c>
       <c r="G87" s="2">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="1">
+        <v>170</v>
+      </c>
+      <c r="J87" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -2723,13 +3257,19 @@
         <v>1000</v>
       </c>
       <c r="G88" s="2">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="1">
+        <v>172</v>
+      </c>
+      <c r="J88" s="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -2749,13 +3289,19 @@
         <v>1000</v>
       </c>
       <c r="G89" s="2">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="1">
+        <v>174</v>
+      </c>
+      <c r="J89" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -2775,13 +3321,19 @@
         <v>1000</v>
       </c>
       <c r="G90" s="2">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="1">
+        <v>176</v>
+      </c>
+      <c r="J90" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -2801,13 +3353,19 @@
         <v>1000</v>
       </c>
       <c r="G91" s="2">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="1">
+        <v>178</v>
+      </c>
+      <c r="J91" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -2827,13 +3385,19 @@
         <v>1000</v>
       </c>
       <c r="G92" s="2">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="1">
+        <v>180</v>
+      </c>
+      <c r="J92" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -2853,13 +3417,19 @@
         <v>1000</v>
       </c>
       <c r="G93" s="2">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="1">
+        <v>182</v>
+      </c>
+      <c r="J93" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -2879,13 +3449,19 @@
         <v>1000</v>
       </c>
       <c r="G94" s="2">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="1">
+        <v>184</v>
+      </c>
+      <c r="J94" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -2905,13 +3481,19 @@
         <v>1000</v>
       </c>
       <c r="G95" s="2">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="1">
+        <v>186</v>
+      </c>
+      <c r="J95" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -2931,13 +3513,19 @@
         <v>1000</v>
       </c>
       <c r="G96" s="2">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="1">
+        <v>188</v>
+      </c>
+      <c r="J96" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -2957,13 +3545,19 @@
         <v>1000</v>
       </c>
       <c r="G97" s="2">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="1">
+        <v>190</v>
+      </c>
+      <c r="J97" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -2983,13 +3577,19 @@
         <v>1000</v>
       </c>
       <c r="G98" s="2">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="1">
+        <v>192</v>
+      </c>
+      <c r="J98" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -3009,13 +3609,19 @@
         <v>1000</v>
       </c>
       <c r="G99" s="2">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="1">
+        <v>194</v>
+      </c>
+      <c r="J99" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -3035,13 +3641,19 @@
         <v>1000</v>
       </c>
       <c r="G100" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="1">
+        <v>196</v>
+      </c>
+      <c r="J100" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -3061,13 +3673,19 @@
         <v>1000</v>
       </c>
       <c r="G101" s="2">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="1">
+        <v>198</v>
+      </c>
+      <c r="J101" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -3087,10 +3705,16 @@
         <v>1000</v>
       </c>
       <c r="G102" s="2">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I102" s="1">
+        <v>200</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/TableOrigin/210_Stage.xlsx
+++ b/TableOrigin/210_Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Github\ProjectCasual\TableOrigin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED780DD-DDC8-4A7F-9095-7BB8E2F4A515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DCF81-A440-4A10-BE2E-4A711A2F43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7695" yWindow="465" windowWidth="16740" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="1">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="J14" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1026,7 +1026,7 @@
         <v>32</v>
       </c>
       <c r="J18" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>38</v>
       </c>
       <c r="J21" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>40</v>
       </c>
       <c r="J22" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>42</v>
       </c>
       <c r="J23" s="1">
-        <v>210</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
         <v>46</v>
       </c>
       <c r="J25" s="1">
-        <v>230</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="J26" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>50</v>
       </c>
       <c r="J27" s="1">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>52</v>
       </c>
       <c r="J28" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>54</v>
       </c>
       <c r="J29" s="1">
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>56</v>
       </c>
       <c r="J30" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>58</v>
       </c>
       <c r="J31" s="1">
-        <v>290</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>60</v>
       </c>
       <c r="J32" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
         <v>62</v>
       </c>
       <c r="J33" s="1">
-        <v>310</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>64</v>
       </c>
       <c r="J34" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1570,7 +1570,7 @@
         <v>66</v>
       </c>
       <c r="J35" s="1">
-        <v>330</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1602,7 +1602,7 @@
         <v>68</v>
       </c>
       <c r="J36" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1634,7 +1634,7 @@
         <v>70</v>
       </c>
       <c r="J37" s="1">
-        <v>350</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>72</v>
       </c>
       <c r="J38" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
         <v>74</v>
       </c>
       <c r="J39" s="1">
-        <v>370</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1730,7 +1730,7 @@
         <v>76</v>
       </c>
       <c r="J40" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="J41" s="1">
-        <v>390</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
         <v>80</v>
       </c>
       <c r="J42" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>82</v>
       </c>
       <c r="J43" s="1">
-        <v>410</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>84</v>
       </c>
       <c r="J44" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>86</v>
       </c>
       <c r="J45" s="1">
-        <v>430</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
         <v>88</v>
       </c>
       <c r="J46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
         <v>90</v>
       </c>
       <c r="J47" s="1">
-        <v>450</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>92</v>
       </c>
       <c r="J48" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2018,7 +2018,7 @@
         <v>94</v>
       </c>
       <c r="J49" s="1">
-        <v>470</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>96</v>
       </c>
       <c r="J50" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2082,7 +2082,7 @@
         <v>98</v>
       </c>
       <c r="J51" s="1">
-        <v>490</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2114,7 +2114,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
         <v>102</v>
       </c>
       <c r="J53" s="1">
-        <v>510</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
         <v>104</v>
       </c>
       <c r="J54" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2210,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="J55" s="1">
-        <v>530</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
         <v>108</v>
       </c>
       <c r="J56" s="1">
-        <v>540</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2274,7 +2274,7 @@
         <v>110</v>
       </c>
       <c r="J57" s="1">
-        <v>550</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>112</v>
       </c>
       <c r="J58" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
         <v>114</v>
       </c>
       <c r="J59" s="1">
-        <v>570</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
         <v>116</v>
       </c>
       <c r="J60" s="1">
-        <v>580</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="J61" s="1">
-        <v>590</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2434,7 +2434,7 @@
         <v>120</v>
       </c>
       <c r="J62" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
         <v>122</v>
       </c>
       <c r="J63" s="1">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2498,7 +2498,7 @@
         <v>124</v>
       </c>
       <c r="J64" s="1">
-        <v>620</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2530,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="J65" s="1">
-        <v>630</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2562,7 +2562,7 @@
         <v>128</v>
       </c>
       <c r="J66" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2594,7 +2594,7 @@
         <v>130</v>
       </c>
       <c r="J67" s="1">
-        <v>650</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
         <v>132</v>
       </c>
       <c r="J68" s="1">
-        <v>660</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
         <v>134</v>
       </c>
       <c r="J69" s="1">
-        <v>670</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
         <v>136</v>
       </c>
       <c r="J70" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>138</v>
       </c>
       <c r="J71" s="1">
-        <v>690</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>140</v>
       </c>
       <c r="J72" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -2786,7 +2786,7 @@
         <v>142</v>
       </c>
       <c r="J73" s="1">
-        <v>710</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>144</v>
       </c>
       <c r="J74" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -2850,7 +2850,7 @@
         <v>146</v>
       </c>
       <c r="J75" s="1">
-        <v>730</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -2882,7 +2882,7 @@
         <v>148</v>
       </c>
       <c r="J76" s="1">
-        <v>740</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -2914,7 +2914,7 @@
         <v>150</v>
       </c>
       <c r="J77" s="1">
-        <v>750</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -2946,7 +2946,7 @@
         <v>152</v>
       </c>
       <c r="J78" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -2978,7 +2978,7 @@
         <v>154</v>
       </c>
       <c r="J79" s="1">
-        <v>770</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
         <v>156</v>
       </c>
       <c r="J80" s="1">
-        <v>780</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3042,7 +3042,7 @@
         <v>158</v>
       </c>
       <c r="J81" s="1">
-        <v>790</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3074,7 +3074,7 @@
         <v>160</v>
       </c>
       <c r="J82" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3106,7 +3106,7 @@
         <v>162</v>
       </c>
       <c r="J83" s="1">
-        <v>810</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3138,7 +3138,7 @@
         <v>164</v>
       </c>
       <c r="J84" s="1">
-        <v>820</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3170,7 +3170,7 @@
         <v>166</v>
       </c>
       <c r="J85" s="1">
-        <v>830</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3202,7 +3202,7 @@
         <v>168</v>
       </c>
       <c r="J86" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
         <v>170</v>
       </c>
       <c r="J87" s="1">
-        <v>850</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>172</v>
       </c>
       <c r="J88" s="1">
-        <v>860</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
         <v>174</v>
       </c>
       <c r="J89" s="1">
-        <v>870</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>176</v>
       </c>
       <c r="J90" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3362,7 +3362,7 @@
         <v>178</v>
       </c>
       <c r="J91" s="1">
-        <v>890</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3394,7 +3394,7 @@
         <v>180</v>
       </c>
       <c r="J92" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3426,7 +3426,7 @@
         <v>182</v>
       </c>
       <c r="J93" s="1">
-        <v>910</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
         <v>184</v>
       </c>
       <c r="J94" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
         <v>186</v>
       </c>
       <c r="J95" s="1">
-        <v>930</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -3522,7 +3522,7 @@
         <v>188</v>
       </c>
       <c r="J96" s="1">
-        <v>940</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3554,7 +3554,7 @@
         <v>190</v>
       </c>
       <c r="J97" s="1">
-        <v>950</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
         <v>192</v>
       </c>
       <c r="J98" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3618,7 +3618,7 @@
         <v>194</v>
       </c>
       <c r="J99" s="1">
-        <v>970</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3650,7 +3650,7 @@
         <v>196</v>
       </c>
       <c r="J100" s="1">
-        <v>980</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3682,7 +3682,7 @@
         <v>198</v>
       </c>
       <c r="J101" s="1">
-        <v>990</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3714,7 +3714,7 @@
         <v>200</v>
       </c>
       <c r="J102" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
